--- a/biology/Médecine/Faculté_de_médecine_d'Oran/Faculté_de_médecine_d'Oran.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_d'Oran/Faculté_de_médecine_d'Oran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_d%27Oran</t>
+          <t>Faculté_de_médecine_d'Oran</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Faculté de Médecine d’Oran a été créée en 1967 par Ordonnance numéro 67-278 du 29 décembre 1967 où le Centre Hospitalo-universitaire fut érigé en Université.
 La réforme de l’Enseignement Universitaire de 1971 donne naissance à 11 instituts dont celui des Sciences Médicales d’Oran (ISM) et treize ans plus tard (1984). En raison de la spécificité des études médicales, le Décret numéro 84-216 du 18 août 1984 est promulgué pour la création de l’Institut National de l’Enseignement Supérieur en Sciences Médicales d’Oran (INESSM) et tutelle deux annexes à Tlemcen et à Sidi Bel Abbès. Et c’est le nouveau statut de 1998 qui permettra la création de la Faculté de Médecine d’Oran sur le décret numéro 98.253 du 17 août 1998 qui reste en vigueur à ce jour.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_d%27Oran</t>
+          <t>Faculté_de_médecine_d'Oran</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,94 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Occupant le deuxième rang national sur les 14 facultés de Médecine que compte l’Algérie, la Faculté de médecine d’Oran figure parmi les cinq facultés[2] de l’Université d’Oran 1 Ahmed Ben Bella. En attente de la nouvelle Faculté de Médecine en cours de réalisation, la Faculté de Médecine d’Oran dispose de quatre infrastructures dont le siège de la Faculté (Ex INESSMO), le Département de Pharmacie à l’IGMO, et deux infrastructures jouxtant le CHU Oran : le Département de Médecine (Ex ISM) et l’Institut de Médecine Dentaire. Son organisation de formation pratique pour promouvoir à la fois les soins aux malades, l’enseignement et la recherche s’appuie sur d’importantes structures hospitalo-universitaires dont le CHU Oran, l’EHU Oran, l’HMRUO et les différents EHS dont dispose la ville d’Oran.
-À travers ses trois Départements de Médecine, de Pharmacie et de Médecine Dentaire, la Faculté de Médecine d’Oran offre un enseignement académique et une pratique clinique en milieu hospitalier ; et propose d’une part une formation graduée pour l’obtention respective du Diplôme de Docteur en Médecine, en Pharmacie et en Médecine Dentaire et d’autre part une formation post-graduée pour l’obtention du Diplôme des Études Spécialisées dans plus de 45 disciplines en Médecine, 15 en Pharmacie et 5 en Médecine Dentaire[3].
-Départements
-Implantée sur une superficie de 20 hectares, la faculté de médecine d’Oran d’une capacité d’accueil de 10 000 places pédagogiques dispose de sept amphithéâtres et de 56 laboratoires (médecine, pharmacie, microbiologie, anatomie, chimie, biochimie, physiologie…), et d’un auditorium de 600 places[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Occupant le deuxième rang national sur les 14 facultés de Médecine que compte l’Algérie, la Faculté de médecine d’Oran figure parmi les cinq facultés de l’Université d’Oran 1 Ahmed Ben Bella. En attente de la nouvelle Faculté de Médecine en cours de réalisation, la Faculté de Médecine d’Oran dispose de quatre infrastructures dont le siège de la Faculté (Ex INESSMO), le Département de Pharmacie à l’IGMO, et deux infrastructures jouxtant le CHU Oran : le Département de Médecine (Ex ISM) et l’Institut de Médecine Dentaire. Son organisation de formation pratique pour promouvoir à la fois les soins aux malades, l’enseignement et la recherche s’appuie sur d’importantes structures hospitalo-universitaires dont le CHU Oran, l’EHU Oran, l’HMRUO et les différents EHS dont dispose la ville d’Oran.
+À travers ses trois Départements de Médecine, de Pharmacie et de Médecine Dentaire, la Faculté de Médecine d’Oran offre un enseignement académique et une pratique clinique en milieu hospitalier ; et propose d’une part une formation graduée pour l’obtention respective du Diplôme de Docteur en Médecine, en Pharmacie et en Médecine Dentaire et d’autre part une formation post-graduée pour l’obtention du Diplôme des Études Spécialisées dans plus de 45 disciplines en Médecine, 15 en Pharmacie et 5 en Médecine Dentaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_d'Oran</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_d%27Oran</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Départements</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Implantée sur une superficie de 20 hectares, la faculté de médecine d’Oran d’une capacité d’accueil de 10 000 places pédagogiques dispose de sept amphithéâtres et de 56 laboratoires (médecine, pharmacie, microbiologie, anatomie, chimie, biochimie, physiologie…), et d’un auditorium de 600 places
 La faculté comporte trois départements d'enseignement, celui de médecine, celui de médecine dentaire et enfin de pharmacie. Elle délivre les diplômes de graduation dans ces trois départements.
 Elle assure également une formation post-graduée en médecine, en médecine dentaire ainsi qu'en pharmacie, dans une trentaine de spécialités.
-Elle gère enfin, en collaboration avec les facultés de sciences et de technologie de notre université, deux masters de physique médicale et de pharmacie industrielle[5].
-Médecine
-Le Département de Médecine offre une formation graduée pour l’obtention du Diplôme de Docteur en Médecine et une formation post-graduée pour l’obtention du diplôme des études Spécialisées dans plus de 45 disciplines en Médecine [6].
+Elle gère enfin, en collaboration avec les facultés de sciences et de technologie de notre université, deux masters de physique médicale et de pharmacie industrielle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_d'Oran</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_d%27Oran</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Départements</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Département de Médecine offre une formation graduée pour l’obtention du Diplôme de Docteur en Médecine et une formation post-graduée pour l’obtention du diplôme des études Spécialisées dans plus de 45 disciplines en Médecine .
 Graduation (Cycle pré-clinique)
 Première année
 Anatomie
@@ -613,9 +702,47 @@
 Radiologie
 Radiothérapie
 Réanimation médicale
-Rhumatologie
-Médecine dentaire
-Le département de Médecine dentaire d’Oran, situé au sein de la faculté de Médecine dispense une formation théorique et pratique dans les domaines de la recherche diagnostique des maladies de la bouche, des dents et des maxillaires et des techniques de prévention et de traitement. De même qu’il met l’accent sur l’acquisition des connaissances scientifiques permettant de se préparer et de s'adapter à l'évolution de la médecine dentaire et de s'orienter éventuellement vers des formations complémentaires voire vers une carrière d'enseignant chercheur.
+Rhumatologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_d'Oran</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_d%27Oran</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Départements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Médecine dentaire</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le département de Médecine dentaire d’Oran, situé au sein de la faculté de Médecine dispense une formation théorique et pratique dans les domaines de la recherche diagnostique des maladies de la bouche, des dents et des maxillaires et des techniques de prévention et de traitement. De même qu’il met l’accent sur l’acquisition des connaissances scientifiques permettant de se préparer et de s'adapter à l'évolution de la médecine dentaire et de s'orienter éventuellement vers des formations complémentaires voire vers une carrière d'enseignant chercheur.
 Cycle de graduation
 Première année
 Anatomie Générale
@@ -666,14 +793,52 @@
 Parodontologie.
 Pathologie bucco-dentaire.
 Prothèse.
-La durée de formation est de quatre (04) années[7].
+La durée de formation est de quatre (04) années.
 Mission
 De vérifier les effets que produisent ces programmes sur la santé de la population
 De renforcer l’approche éthique (dans les domaines de santé publique, clinique et de recherche).
 Assurer sa responsabilité sociale en contribuant à la qualité, l’équité, la pertinence et l’efficacité des services de santé bucco-dentaire
-De s’ouvrir sur son environnement en assurant des programmes de formation continue et en collaborant avec les autres professionnels de la santé[8].
-Pharmacie
-Le Département de Pharmacie s'axe sur une formation graduée de six années comprenant quinze spécialités pour l’obtention du Diplôme de Docteur en Pharmacie et une formation post-graduée variant entre quatre et cinq années pour l’obtention du Diplôme des études Médicales Spéciales (DEMS).
+De s’ouvrir sur son environnement en assurant des programmes de formation continue et en collaborant avec les autres professionnels de la santé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_d'Oran</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_d%27Oran</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Départements</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pharmacie</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Département de Pharmacie s'axe sur une formation graduée de six années comprenant quinze spécialités pour l’obtention du Diplôme de Docteur en Pharmacie et une formation post-graduée variant entre quatre et cinq années pour l’obtention du Diplôme des études Médicales Spéciales (DEMS).
 Cycle de graduation
 Première année
 Biomathématiques, informatique et biostatistiques
@@ -736,33 +901,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_d%27Oran</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine_d'Oran</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine_d%27Oran</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Presse médicale (JFMO)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le journal de la faculté de Médecine d’Oran (JFMO) côtoie la presse médicale au biais de publications consultables en open access. Le journal est édité par l’université d’Oran 1 Ahmed Benbella[9] « JFMO a la vocation de promouvoir la production scientifique et de dynamiser le partage des connaissances entre les différents acteurs de la santé. Il a pour objectifs d’initier les chercheurs à la rédaction scientifique afin d’assurer une meilleure visibilité de leurs travaux de recherche »[10].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le journal de la faculté de Médecine d’Oran (JFMO) côtoie la presse médicale au biais de publications consultables en open access. Le journal est édité par l’université d’Oran 1 Ahmed Benbella « JFMO a la vocation de promouvoir la production scientifique et de dynamiser le partage des connaissances entre les différents acteurs de la santé. Il a pour objectifs d’initier les chercheurs à la rédaction scientifique afin d’assurer une meilleure visibilité de leurs travaux de recherche ».
 </t>
         </is>
       </c>
